--- a/Embedded_Qs/energy_equation.xlsx
+++ b/Embedded_Qs/energy_equation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="255" windowWidth="18480" windowHeight="14700" activeTab="3"/>
+    <workbookView xWindow="10140" yWindow="255" windowWidth="18480" windowHeight="14700" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="4_" sheetId="1" r:id="rId5"/>
     <sheet name="5_" sheetId="3" r:id="rId6"/>
     <sheet name="6_" sheetId="5" r:id="rId7"/>
+    <sheet name="7_" sheetId="10" r:id="rId8"/>
+    <sheet name="8_" sheetId="12" r:id="rId9"/>
+    <sheet name="9_" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>Correct</t>
   </si>
@@ -50,33 +53,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Correct order of definitions</t>
-  </si>
-  <si>
-    <t>Given what you know about what makes convection effective, do you think that a turbulent flow would tend to increase the effectiveness of convection?</t>
-  </si>
-  <si>
-    <t>Yes, it will increase the effectiveness</t>
-  </si>
-  <si>
-    <t>It would not change its effectiveness</t>
-  </si>
-  <si>
-    <t>No, it would decrease the effectiveness of the convection</t>
-  </si>
-  <si>
-    <t>Yep!  Convection works because it moves fluid far from the wall closer to the wall, and increases temperature gradients in doing so.  The violent disruptions and unpredictable whorls of turbulence are very effective at moving hot packets of fluid next to cold surfaces, and vice versa.</t>
-  </si>
-  <si>
-    <t>All of the given values are in base metric units, so no conversion is necessary.</t>
-  </si>
-  <si>
-    <t>Look at the equation for the critical Reynolds number. How fast would an air flow over a 3 m long plate need to be in order that the transition to turbulent flow would begin before the plate ended?  (density rho = 1.2 kg/m3, viscosity mu = 1.8 x 10^-5 kg/ms).  Answer in m/s.</t>
-  </si>
-  <si>
-    <t>Look at the plot of h and delta as a function of x (the distance past the leading edge).  Given an air flow over a plate, approximately where will *h* reach its maximum if the free stream velocity (u_infinity) is 10 m/s and the plate is 4 m long? Use the material values from the previous question.</t>
-  </si>
-  <si>
     <t>Using the equations for u* and y* in the video, what is the value of the derivative "du*/dy*"?  See if you can figure this out; if you get stuck, make a guess and follow the directions in the comments.</t>
   </si>
   <si>
@@ -141,6 +117,108 @@
   </si>
   <si>
     <t>Yep!  This is one of the key advantages of scaled solutions.</t>
+  </si>
+  <si>
+    <t>If a flow had a high Peclet number, what would be true of the flow?  (Mark all that are true)</t>
+  </si>
+  <si>
+    <t>Most of the heat transfer in the flow would be cause by bulk fluid motion.</t>
+  </si>
+  <si>
+    <t>We could ignore the thermal diffusion term in the energy equation.</t>
+  </si>
+  <si>
+    <t>We could ignore the advection term in the energy equation.</t>
+  </si>
+  <si>
+    <t>We could ignore the friction term in the energy equation.</t>
+  </si>
+  <si>
+    <t>Yep!  The Peclet number tells us that the movement of energy is dominated by advection rather than by conduction.</t>
+  </si>
+  <si>
+    <t>Yep!  Because the flow of thermal enegy is dominated by advection, diffusion makes only a  small difference.</t>
+  </si>
+  <si>
+    <t>If we were interested in small changes in temperature in a high velocity flow whose temperature ranged only over a couple degrees, which of the following would be true?</t>
+  </si>
+  <si>
+    <t>The frictional production of thermal energy would be important and the Ec/Re ratio would be high.</t>
+  </si>
+  <si>
+    <t>The frictional production of thermal energy would be insignificant and the Ec/Re ratio would be high.</t>
+  </si>
+  <si>
+    <t>The frictional production of thermal energy would be insignificant and the Ec/Re ratio would be low.</t>
+  </si>
+  <si>
+    <t>The frictional production of thermal energy would be important and the Ec/Re ratio would be low.</t>
+  </si>
+  <si>
+    <t>Yep!  A high velocity and low temperature scale would produce a large Ec/Re.  Physically, this would mean that there would be a lot of viscous production of thermal energy in a situation where even a small production would make a difference to the temperature field.</t>
+  </si>
+  <si>
+    <t>What causes the curvature in the Couette flow temperature field?  In other words, what heats up the center of the flow field?</t>
+  </si>
+  <si>
+    <t>Advection of thermal energy from top and bottom of the field</t>
+  </si>
+  <si>
+    <t>Viscous friction</t>
+  </si>
+  <si>
+    <t>Diffusion of thermal energy from the hot, top plate</t>
+  </si>
+  <si>
+    <t>Yep! This friction transforms kinetic energy into thermal energy</t>
+  </si>
+  <si>
+    <t>Nope!  Since there is laminar flow, there is no advection in the vertical direction (that is, v = 0)</t>
+  </si>
+  <si>
+    <t>Nope!   Diffusion along leads to a linear temperature field from the bottom to top plate</t>
+  </si>
+  <si>
+    <t>Which of the following, if increased, would tend to increase the curvature of the temperature field in Couette flow? (Mark all that are true)</t>
+  </si>
+  <si>
+    <t>Velocity of top plate</t>
+  </si>
+  <si>
+    <t>Thermal conductivity k of the fluid</t>
+  </si>
+  <si>
+    <t>Specific heat C of the fluid</t>
+  </si>
+  <si>
+    <t>Kinematic viscosity nu of the fluid</t>
+  </si>
+  <si>
+    <t>Temperature of the top plate</t>
+  </si>
+  <si>
+    <t>Yep!  The higher velocities would result in higher gradients of velocity and so to higher viscous friction</t>
+  </si>
+  <si>
+    <t>Nope!  If heat spreads more quickly through the fluid, it is less likely to have distinct hot and cool spots: in other words, this will "flatten" the temperature field.</t>
+  </si>
+  <si>
+    <t>Nope!  This shows up in two places (alpha in Pr, and in Ec), and they will cancel each other out.</t>
+  </si>
+  <si>
+    <t>Yep!  An increase here would increase viscous losses in the fluid, which lead to increased thermal energy</t>
+  </si>
+  <si>
+    <t>Nope!  This would not change viscous losses in the fluid, but would make them harder to detect because the overall temperature differences would be larger.</t>
+  </si>
+  <si>
+    <t>Change your material to glycerol (rho = 1261 kg/m3; nu = 0.0011; C = 2350 J/kgC; k = 0.6).  Change the temperatures to 60 and 20 degrees (top and bottom, respectively).  What is the approximate maximum value of theta*?</t>
+  </si>
+  <si>
+    <t>You can use the function max(temps) to find the maximum value in your Series (or you can approximate).</t>
+  </si>
+  <si>
+    <t>Change your material to glycerol (rho = 1261 kg/m3; nu = 0.0011; C = 2350 J/kgC; k = 0.6).  Change the temperatures to 60 and 20 degrees (top and bottom, respectively).  What is the maximum value of T, in degrees C?</t>
   </si>
 </sst>
 </file>
@@ -515,7 +593,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -534,29 +612,82 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>156</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -582,7 +713,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -593,7 +724,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -601,7 +732,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -609,7 +740,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -617,18 +748,18 @@
     </row>
     <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -647,7 +778,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +792,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -680,7 +811,7 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -692,7 +823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -707,7 +838,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -718,35 +849,35 @@
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -756,10 +887,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,9 +901,9 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -781,30 +912,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -815,10 +957,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,28 +971,44 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +1021,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,25 +1033,47 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
@@ -903,6 +1083,138 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
